--- a/mySystem/mySystem/xls/PTV/8 SOP-MFG-412-R01A 底封机运行记录.xlsx
+++ b/mySystem/mySystem/xls/PTV/8 SOP-MFG-412-R01A 底封机运行记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\305，PTV生产记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpro\newnew\mitcpro\mySystem\mySystem\xls\PTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -867,28 +867,28 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>生产指令：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>复核人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：参数确认栏内符合划√,不符合填写实际数值。外观检查结果合格划√，不合格写数量,并备注中注明不良项。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">外观检查 </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
     <t>膜或袋体代码：</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产指令：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>复核人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：参数确认栏内符合划√,不符合填写实际数值。外观检查结果合格划√，不合格写数量,并备注中注明不良项。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">外观检查 </t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1806,7 +1806,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1972,24 +1972,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1999,18 +2026,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2029,29 +2050,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2125,24 +2140,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2188,11 +2185,23 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2517,13 +2526,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2535,67 +2544,67 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="68" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="68" t="s">
+      <c r="G3" s="76"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="71"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="78"/>
     </row>
     <row r="4" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="66"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="74"/>
     </row>
     <row r="5" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="6"/>
       <c r="E5" s="18"/>
       <c r="F5" s="5"/>
@@ -2607,7 +2616,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="68" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2627,7 +2636,7 @@
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A7" s="57"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
@@ -2645,7 +2654,7 @@
       <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A8" s="57"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
@@ -2663,7 +2672,7 @@
       <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A9" s="57"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
@@ -2681,11 +2690,11 @@
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="14"/>
       <c r="E10" s="21"/>
       <c r="F10" s="13"/>
@@ -2697,7 +2706,7 @@
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="55" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -2717,7 +2726,7 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A12" s="57"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="10" t="s">
         <v>1</v>
       </c>
@@ -2735,7 +2744,7 @@
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A13" s="57"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="10" t="s">
         <v>2</v>
       </c>
@@ -2753,7 +2762,7 @@
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A14" s="57"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
@@ -2771,11 +2780,11 @@
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59" t="s">
+      <c r="A15" s="66"/>
+      <c r="B15" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="59"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="14"/>
       <c r="E15" s="21"/>
       <c r="F15" s="13"/>
@@ -2787,7 +2796,7 @@
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -2807,7 +2816,7 @@
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A17" s="57"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="10" t="s">
         <v>1</v>
       </c>
@@ -2825,7 +2834,7 @@
       <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A18" s="57"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="10" t="s">
         <v>2</v>
       </c>
@@ -2843,7 +2852,7 @@
       <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A19" s="57"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="10" t="s">
         <v>3</v>
       </c>
@@ -2861,11 +2870,11 @@
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A20" s="74"/>
-      <c r="B20" s="75" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="75"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="23"/>
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
@@ -2877,11 +2886,11 @@
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -2893,11 +2902,11 @@
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2909,11 +2918,11 @@
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2925,11 +2934,11 @@
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -2941,33 +2950,25 @@
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:12" ht="108" customHeight="1" thickBot="1">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="76" t="s">
+      <c r="J25" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="77"/>
-      <c r="L25" s="78"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A11:A15"/>
@@ -2980,6 +2981,14 @@
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3019,14 +3028,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
@@ -3046,54 +3055,54 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="39.75" customHeight="1">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
     </row>
     <row r="3" spans="1:21" ht="32.25" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="111" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="110" t="s">
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
       <c r="R3" s="52" t="s">
         <v>28</v>
       </c>
@@ -3102,49 +3111,49 @@
       <c r="U3" s="54"/>
     </row>
     <row r="4" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="103" t="s">
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="85" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="88" t="s">
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="91" t="s">
+      <c r="T4" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="94" t="s">
+      <c r="U4" s="99" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30.75" customHeight="1">
-      <c r="A5" s="99"/>
-      <c r="B5" s="102"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="50" t="s">
         <v>0</v>
       </c>
@@ -3157,7 +3166,7 @@
       <c r="F5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="97" t="s">
+      <c r="G5" s="102" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="50" t="s">
@@ -3172,7 +3181,7 @@
       <c r="K5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="97" t="s">
+      <c r="L5" s="102" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="50" t="s">
@@ -3187,17 +3196,17 @@
       <c r="P5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="97" t="s">
+      <c r="Q5" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="89"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="95"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="100"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="99"/>
-      <c r="B6" s="102"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="50" t="s">
         <v>5</v>
       </c>
@@ -3210,7 +3219,7 @@
       <c r="F6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="97"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="50" t="s">
         <v>5</v>
       </c>
@@ -3223,7 +3232,7 @@
       <c r="K6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="97"/>
+      <c r="L6" s="102"/>
       <c r="M6" s="50" t="s">
         <v>5</v>
       </c>
@@ -3236,14 +3245,14 @@
       <c r="P6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="95"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="100"/>
     </row>
     <row r="7" spans="1:21" ht="24.75" customHeight="1">
-      <c r="A7" s="100"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="30" t="s">
         <v>35</v>
       </c>
@@ -3262,10 +3271,10 @@
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
       <c r="Q7" s="33"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="96"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="1:21" ht="21" customHeight="1">
       <c r="A8" s="34">
@@ -3568,44 +3577,39 @@
       <c r="U19" s="48"/>
     </row>
     <row r="20" spans="1:21" ht="80.25" customHeight="1">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="83" t="s">
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="84" t="s">
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
     </row>
     <row r="21" spans="1:21">
       <c r="S21" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="F3:L3"/>
     <mergeCell ref="A20:L20"/>
     <mergeCell ref="M20:Q20"/>
     <mergeCell ref="R20:U20"/>
@@ -3621,6 +3625,11 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:L4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="F3:L3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3634,13 +3643,13 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="29" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="131" customWidth="1"/>
     <col min="3" max="3" width="7.375" style="29" customWidth="1"/>
     <col min="4" max="5" width="6.5" style="29" customWidth="1"/>
     <col min="6" max="6" width="6.25" style="29" customWidth="1"/>
@@ -3654,20 +3663,20 @@
     <col min="16" max="16" width="5.5" style="29" customWidth="1"/>
     <col min="17" max="17" width="4.625" style="29" customWidth="1"/>
     <col min="18" max="18" width="6.125" style="29" customWidth="1"/>
-    <col min="19" max="19" width="8.125" style="29" customWidth="1"/>
-    <col min="20" max="20" width="11.25" style="29" customWidth="1"/>
+    <col min="19" max="19" width="7.125" style="29" customWidth="1"/>
+    <col min="20" max="20" width="7.375" style="29" customWidth="1"/>
     <col min="21" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
@@ -3686,100 +3695,100 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="39.75" customHeight="1">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
     </row>
     <row r="3" spans="1:20" ht="26.25" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="111" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="110" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110" t="s">
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" customHeight="1">
+      <c r="A4" s="123" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="117" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-    </row>
-    <row r="4" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A4" s="124" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="127" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="103" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="103" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="118" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="112" t="s">
+      <c r="T4" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="121" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="5" spans="1:20" ht="30.75" customHeight="1">
-      <c r="A5" s="125"/>
-      <c r="B5" s="128"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="50" t="s">
         <v>0</v>
       </c>
@@ -3792,7 +3801,7 @@
       <c r="F5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="97" t="s">
+      <c r="G5" s="102" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="50" t="s">
@@ -3807,7 +3816,7 @@
       <c r="K5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="97" t="s">
+      <c r="L5" s="102" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="50" t="s">
@@ -3822,16 +3831,16 @@
       <c r="P5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="97" t="s">
+      <c r="Q5" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="119"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="122"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="121"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="125"/>
-      <c r="B6" s="128"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="50" t="s">
         <v>5</v>
       </c>
@@ -3844,7 +3853,7 @@
       <c r="F6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="97"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="50" t="s">
         <v>5</v>
       </c>
@@ -3857,7 +3866,7 @@
       <c r="K6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="97"/>
+      <c r="L6" s="102"/>
       <c r="M6" s="50" t="s">
         <v>5</v>
       </c>
@@ -3870,14 +3879,14 @@
       <c r="P6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="122"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="112"/>
+      <c r="T6" s="121"/>
     </row>
     <row r="7" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A7" s="126"/>
-      <c r="B7" s="55" t="s">
+      <c r="A7" s="125"/>
+      <c r="B7" s="128" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="31"/>
@@ -3895,15 +3904,15 @@
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
       <c r="Q7" s="33"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="123"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="113"/>
+      <c r="T7" s="122"/>
     </row>
     <row r="8" spans="1:20" ht="21" customHeight="1">
       <c r="A8" s="34">
         <v>1</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -3927,7 +3936,7 @@
       <c r="A9" s="39">
         <v>2</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="41"/>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -3951,7 +3960,7 @@
       <c r="A10" s="39">
         <v>3</v>
       </c>
-      <c r="B10" s="40"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="41"/>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
@@ -3975,7 +3984,7 @@
       <c r="A11" s="39">
         <v>4</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="41"/>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
@@ -3999,7 +4008,7 @@
       <c r="A12" s="39">
         <v>5</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="41"/>
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
@@ -4023,7 +4032,7 @@
       <c r="A13" s="39">
         <v>6</v>
       </c>
-      <c r="B13" s="40"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="41"/>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
@@ -4047,7 +4056,7 @@
       <c r="A14" s="39">
         <v>7</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="41"/>
       <c r="D14" s="42"/>
       <c r="E14" s="42"/>
@@ -4071,7 +4080,7 @@
       <c r="A15" s="39">
         <v>8</v>
       </c>
-      <c r="B15" s="40"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="41"/>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
@@ -4095,7 +4104,7 @@
       <c r="A16" s="39">
         <v>9</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="130"/>
       <c r="C16" s="41"/>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
@@ -4119,7 +4128,7 @@
       <c r="A17" s="39">
         <v>10</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="130"/>
       <c r="C17" s="41"/>
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
@@ -4140,31 +4149,37 @@
       <c r="T17" s="43"/>
     </row>
     <row r="18" spans="1:20" ht="33" customHeight="1">
-      <c r="A18" s="115" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="116"/>
-      <c r="S18" s="116"/>
-      <c r="T18" s="117"/>
+      <c r="A18" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
+      <c r="R18" s="115"/>
+      <c r="S18" s="115"/>
+      <c r="T18" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:T2"/>
     <mergeCell ref="S4:S7"/>
     <mergeCell ref="A18:T18"/>
     <mergeCell ref="R4:R7"/>
@@ -4177,12 +4192,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:L4"/>
     <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:T2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
